--- a/lab_4/economics.xlsx
+++ b/lab_4/economics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Repos\knu-2nd\EcologyAndEconomics\lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF374CC-D605-45A0-9283-C2B5D8F9573D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC25E86B-E19B-4786-B0C1-1C6CE4FCAB1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85D1D345-DFEA-4499-AC9E-2B2A6AC74578}"/>
+    <workbookView xWindow="3105" yWindow="5415" windowWidth="19185" windowHeight="8820" xr2:uid="{85D1D345-DFEA-4499-AC9E-2B2A6AC74578}"/>
   </bookViews>
   <sheets>
     <sheet name="Максимальний прибуток" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
   <si>
     <t>Обсяг витрат капіталу</t>
   </si>
@@ -192,7 +192,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -351,9 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -368,32 +371,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,14 +721,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="J5" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -739,10 +748,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="13">
         <f>H6*J5+H7*J6</f>
         <v>128242.23357547051</v>
       </c>
@@ -766,10 +775,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="21">
         <v>12</v>
       </c>
     </row>
@@ -790,10 +799,10 @@
         <f t="shared" ref="E3:E11" si="0">($H$6*B3+$H$7*C3-D3)^2</f>
         <v>1751312.2343849691</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>3</v>
       </c>
     </row>
@@ -814,10 +823,10 @@
         <f t="shared" si="0"/>
         <v>15719.3926856494</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>1</v>
       </c>
     </row>
@@ -838,10 +847,10 @@
         <f t="shared" si="0"/>
         <v>6060914.8146210574</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="23">
         <v>5008</v>
       </c>
       <c r="K5" s="7">
@@ -866,16 +875,16 @@
         <f t="shared" si="0"/>
         <v>95651812.583308488</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>12.833082224330152</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="23">
         <v>13835.000000000002</v>
       </c>
       <c r="K6" s="7">
@@ -900,16 +909,16 @@
         <f t="shared" si="0"/>
         <v>18873747.384467203</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>4.6240807947976217</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>80000</v>
       </c>
     </row>
@@ -930,10 +939,10 @@
         <f t="shared" si="0"/>
         <v>2389962.2179182717</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>175000</v>
       </c>
     </row>
@@ -954,10 +963,10 @@
         <f t="shared" si="0"/>
         <v>31646.436054164085</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <f>J1*J2</f>
         <v>1538906.8029056462</v>
       </c>
@@ -979,10 +988,10 @@
         <f t="shared" si="0"/>
         <v>15521346.124294754</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <f>J3*J5+J4*J6</f>
         <v>28859</v>
       </c>
@@ -1004,19 +1013,19 @@
         <f t="shared" si="0"/>
         <v>6700882.6706986772</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <f>J9-J10</f>
         <v>1510047.8029056462</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="7">
         <f>SUM(E2:E11)</f>
         <v>149043344.0402101</v>
@@ -1035,14 +1044,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J7" activeCellId="3" sqref="J3 J4 J2 J7"/>
+      <selection activeCell="J5" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1062,10 +1071,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="19">
+      <c r="J1" s="18">
         <f>H6*J5+H7*J6</f>
         <v>369926.46347989369</v>
       </c>
@@ -1089,10 +1098,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="21">
         <v>12</v>
       </c>
     </row>
@@ -1113,10 +1122,10 @@
         <f t="shared" ref="E3:E11" si="0">($H$6*B3+$H$7*C3-D3)^2</f>
         <v>1751312.2343849691</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1137,10 +1146,10 @@
         <f t="shared" si="0"/>
         <v>15719.3926856494</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1161,10 +1170,10 @@
         <f t="shared" si="0"/>
         <v>6060914.8146210574</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="23">
         <v>1.0000000020227162E-4</v>
       </c>
       <c r="K5" s="7">
@@ -1189,16 +1198,16 @@
         <f t="shared" si="0"/>
         <v>95651812.583308488</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>12.833082224330152</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="23">
         <v>79999.9997</v>
       </c>
       <c r="K6" s="7">
@@ -1223,16 +1232,16 @@
         <f t="shared" si="0"/>
         <v>18873747.384467203</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>4.6240807947976217</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>80000</v>
       </c>
     </row>
@@ -1253,10 +1262,10 @@
         <f t="shared" si="0"/>
         <v>2389962.2179182717</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>175000</v>
       </c>
     </row>
@@ -1277,10 +1286,10 @@
         <f t="shared" si="0"/>
         <v>31646.436054164085</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <f>J1*J2</f>
         <v>4439117.561758724</v>
       </c>
@@ -1302,10 +1311,10 @@
         <f t="shared" si="0"/>
         <v>15521346.124294754</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <f>J3*J5+J4*J6</f>
         <v>80000</v>
       </c>
@@ -1327,19 +1336,19 @@
         <f t="shared" si="0"/>
         <v>6700882.6706986772</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <f>J9-J10</f>
         <v>4359117.561758724</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="7">
         <f>SUM(E2:E11)</f>
         <v>149043344.0402101</v>
@@ -1358,14 +1367,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1385,10 +1394,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="13">
         <f>H6*J5+H7*J6</f>
         <v>1.7457163019127776E-3</v>
       </c>
@@ -1412,10 +1421,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="21">
         <v>12</v>
       </c>
     </row>
@@ -1436,10 +1445,10 @@
         <f t="shared" ref="E3:E11" si="0">($H$6*B3+$H$7*C3-D3)^2</f>
         <v>1751312.2343849691</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1460,10 +1469,10 @@
         <f t="shared" si="0"/>
         <v>15719.3926856494</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1484,10 +1493,10 @@
         <f t="shared" si="0"/>
         <v>6060914.8146210574</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="23">
         <v>1E-4</v>
       </c>
       <c r="K5" s="7">
@@ -1512,16 +1521,16 @@
         <f t="shared" si="0"/>
         <v>95651812.583308488</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>12.833082224330152</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="23">
         <v>1E-4</v>
       </c>
       <c r="K6" s="7">
@@ -1546,16 +1555,16 @@
         <f t="shared" si="0"/>
         <v>18873747.384467203</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>4.6240807947976217</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>80000</v>
       </c>
     </row>
@@ -1576,10 +1585,10 @@
         <f t="shared" si="0"/>
         <v>2389962.2179182717</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>175000</v>
       </c>
     </row>
@@ -1600,10 +1609,10 @@
         <f t="shared" si="0"/>
         <v>31646.436054164085</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <f>J1*J2</f>
         <v>2.0948595622953332E-2</v>
       </c>
@@ -1625,10 +1634,10 @@
         <f t="shared" si="0"/>
         <v>15521346.124294754</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <f>J3*J5+J4*J6</f>
         <v>4.0000000000000002E-4</v>
       </c>
@@ -1650,19 +1659,19 @@
         <f t="shared" si="0"/>
         <v>6700882.6706986772</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <f>J9-J10</f>
         <v>2.0548595622953331E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="7">
         <f>SUM(E2:E11)</f>
         <v>149043344.0402101</v>
